--- a/cylindrical cell comparison.xlsx
+++ b/cylindrical cell comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16317\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16317\Cell-Design\Cell-Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762FA06-F8D0-4806-885B-7C7B966E1CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA72AF9-B211-4167-8586-0A5F2BCBEE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="0" windowWidth="19164" windowHeight="12336" xr2:uid="{B6FFFD20-461E-4C47-93B8-6C5EFE553CC5}"/>
+    <workbookView xWindow="768" yWindow="684" windowWidth="22344" windowHeight="11652" xr2:uid="{B6FFFD20-461E-4C47-93B8-6C5EFE553CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Cylindrical Cell Comparison</t>
   </si>
@@ -87,15 +87,6 @@
     <t>https://insideevs.com/news/598656/tesla-4680-battery-cell-specs/</t>
   </si>
   <si>
-    <t>272-296 (Tesla 4680, estimate)</t>
-  </si>
-  <si>
-    <t>~26000 (Tesla 4680, estimate)</t>
-  </si>
-  <si>
-    <t>Max  Capacity (mAh)</t>
-  </si>
-  <si>
     <t>3.7 (estimate)</t>
   </si>
   <si>
@@ -107,13 +98,28 @@
     <t>3450 (LG INR18650-M36)
 3550 (Panasonic NCR18650G)
 3350 (Samsung INR18650-36G)</t>
+  </si>
+  <si>
+    <t>244 (Tesla)</t>
+  </si>
+  <si>
+    <t>https://carbuzz.com/news/teslas-4680-cells-are-worse-than-those-in-regular-batteries/#:~:text=The%20analysis%20from%20UC%20San,%2C%20at%20230%20Wh%2Fkg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capacity (mAh)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bc0GxGS2x54&amp;t=147s</t>
+  </si>
+  <si>
+    <t>23350 (Tesla)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,10 +161,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -162,8 +177,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AB567A-5196-4D41-989C-2DDE4834983A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>12</v>
@@ -576,28 +595,28 @@
     </row>
     <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>12</v>
+      <c r="I8" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -608,7 +627,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>10</v>
@@ -616,12 +635,16 @@
       <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>12</v>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I9" r:id="rId1" location=":~:text=The%20analysis%20from%20UC%20San,%2C%20at%20230%20Wh%2Fkg." xr:uid="{34A11CF9-C43D-40C2-8BB6-F9E77F4C4A1A}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{69C49EEF-F966-488C-9A95-A09BF43252BF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>